--- a/ph-masterdata/src/test/resources/postalcode/20220414PostalCodes.xlsx
+++ b/ph-masterdata/src/test/resources/postalcode/20220414PostalCodes.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,29 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git\ph-masterdata\ph-masterdata\src\test\resources\postalcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F08B8EC3-ECD5-471B-8729-734EB1F0578B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{311596EB-6E03-4D22-A3D7-25A7DFBD50D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="20220414" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="728">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="723">
   <si>
     <t>Date</t>
   </si>
@@ -1106,9 +1096,6 @@
     <t>HN</t>
   </si>
   <si>
-    <t>NNN NNN</t>
-  </si>
-  <si>
     <t>Ireland</t>
   </si>
   <si>
@@ -2323,18 +2310,9 @@
     <t>HK</t>
   </si>
   <si>
-    <t>[1] The dummy postal code of Hong Kong is 999077.</t>
-  </si>
-  <si>
-    <t>However, if you provide this dummy code where your address label will be electronically created, the system may change the destination country to "Hong Kong S.A.R, CHINA". The addition of "CHINA" can significantly delay delivery. Use an alternate dummy instead (e.g. 00000).[citation needed]</t>
-  </si>
-  <si>
     <t>The code defines an area, usually one code per settlement except the six largest towns. One code can identify more (usually) small settlements as well.</t>
   </si>
   <si>
-    <t>NNNNNN,</t>
-  </si>
-  <si>
     <t>Kode Pos. Included East Timor (ranges 88xxx and 89xxx) until 1999, no longer used. For Indonesia postal code information visit [2]</t>
   </si>
   <si>
@@ -2344,21 +2322,6 @@
     <t>ANN</t>
   </si>
   <si>
-    <t>(Routing key, which is never used on its own)</t>
-  </si>
-  <si>
-    <t>[D6W/ANN] Archived 2012-06-21 at the Wayback Machine [A/N][A/N][A/N][A/N]</t>
-  </si>
-  <si>
-    <t>(Single exception where its D6W ????) [10]</t>
-  </si>
-  <si>
-    <t>Note: A valid postcode never contains the letters: B, G, I, J, L, M, O, Q, S, U, Z.[11]</t>
-  </si>
-  <si>
-    <t>Ireland's postcode system (called Eircode) refers to individual properties – not to streets/areas. It is presented in the format A12 A1BC The first 3 characters are a routing key referring to a postal district, and the second 4 characters are a unique, pseudorandom identifier for individual properties. The codes are only used in full 7-character format. See: www.eircode.ie for more information. See also Republic of Ireland postal addresses.</t>
-  </si>
-  <si>
     <t>CCN NAA, CCNN NAA</t>
   </si>
   <si>
@@ -2368,12 +2331,6 @@
     <t>Codice di Avviamento Postale (CAP). Also used by San Marino (prefix SM) and Vatican City (prefix VA). First two digits identify province with some exceptions, because there are more than 100 provinces.</t>
   </si>
   <si>
-    <t>Before suspension: CCAAANN. Jamaica currently has no national postal code system, except for Kingston and Lower St. Andrew, which are divided into postal districts numbered 1-20[12]</t>
-  </si>
-  <si>
-    <t>Before the 2007 suspension, the first two letters of a national post code were always 'JM' (for Jamaica) while the third was for one of the four zones (A-D) into which the island was divided. The last two letters were for the parish, while the two digits were for the local post office.[13]</t>
-  </si>
-  <si>
     <t>NNN-NNNN</t>
   </si>
   <si>
@@ -2392,9 +2349,6 @@
     <t>The first two digits represent the sector and the last three digits represents the post office.</t>
   </si>
   <si>
-    <t>NNNNN, NNNN NNNN</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">With Switzerland, ordered from west to east. Range </t>
     </r>
@@ -2742,6 +2696,798 @@
     <t>Range 1110–1350</t>
   </si>
   <si>
+    <t>The combination of the postal code and the house number gives a unique identifier of the address. The four numbers indicate an area, the two letters indicate a group of some 25 habitations, offices, factories, or post office boxes.</t>
+  </si>
+  <si>
+    <t>988NN</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Overseas Collectivity of France. French codes used. Range </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>98800</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>–</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>98890</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>2008-06</t>
+  </si>
+  <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">U.S. ZIP codes. Range </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>96950</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>–</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>96952</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Deliveries to P.O. Boxes only. Oman Postal code for postoffice list/</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">U.S. ZIP codes. All locations </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>96939</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>96940</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Palestine</t>
+  </si>
+  <si>
+    <t>PS</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">not yet implemented in practice. Codes </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>100-899</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> are in the Westbank, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>900-999</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in the Gaza Strip</t>
+    </r>
+  </si>
+  <si>
+    <t>NNNNN, CC NNNN</t>
+  </si>
+  <si>
+    <t>PCRN 1ZZ</t>
+  </si>
+  <si>
+    <t>Single code used(AAAA NAA). UK territory, but not UK postcode</t>
+  </si>
+  <si>
+    <t>NN-NNN</t>
+  </si>
+  <si>
+    <t>(PNA) Pocztowy Numer Adresowy</t>
+  </si>
+  <si>
+    <t>NNNN-NNN</t>
+  </si>
+  <si>
+    <t>U.S. ZIP codes. ZIP codes 006XX for NW PR, 007XX for SE PR, in which XX designates the town or post office and 009XX for the San Juan Metropolitan Area, in which XX designates the area or borough of San Juan. The last four digits identify an area within the post office. For example, 00716-2604: 00716-for the east section of the city of Ponce and 2604 for Aceitillo St. in the neighborhood of Los Caobos. US Post office is changing the PR address format to the American one: 1234 No Name Avenue, San Juan, PR 00901.</t>
+  </si>
+  <si>
+    <t>974NN</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Overseas Department of France. French codes used. Range </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>97400</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>–</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>97490</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>RW</t>
+  </si>
+  <si>
+    <t>Overseas Collectivity of France. French codes used, still within the same range used for Guadeloupe</t>
+  </si>
+  <si>
+    <t>Saint Helena, Ascension and Tristan da Cunha</t>
+  </si>
+  <si>
+    <t>AAAA 1ZZ</t>
+  </si>
+  <si>
+    <t>Part of UK system (AAAA NAA). Saint Helena uses one code STHL 1ZZ, Ascension uses one code ASCN 1ZZ, Tristan da Cunha uses one code TDCU 1ZZ.</t>
+  </si>
+  <si>
+    <t>CCNN NNN</t>
+  </si>
+  <si>
+    <t>The first two letters are always LC. There are two spaces between the second and third digits.</t>
+  </si>
+  <si>
+    <t>Overseas Collectivity of France. French codes used.</t>
+  </si>
+  <si>
+    <t>Samoa</t>
+  </si>
+  <si>
+    <t>WS</t>
+  </si>
+  <si>
+    <t>4789N</t>
+  </si>
+  <si>
+    <t>With Italy, uses a five-digit numeric CAP of Emilia Romagna. Range 47890 and 47899</t>
+  </si>
+  <si>
+    <t>São Tomé and Príncipe</t>
+  </si>
+  <si>
+    <t>NNNNN-NNNN, NNNNN</t>
+  </si>
+  <si>
+    <r>
+      <t>NNNNN for PO Boxes. NNNNN-NNNN for home delivery. A complete 13-digit code has 5-digit number representing region, sector, city, and zone; 4-digit X between 2000 and 5999; 4-digit Y between 6000 and 9999.</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[21]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Digits of 5-digit code may represent postal region, sector, branch, section, and block respectively.</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[22]</t>
+    </r>
+  </si>
+  <si>
+    <t>with Czech Republic from west to east, Poštové smerovacie číslo (PSČ) – postal routing number. The first digit is from 8, 9, 0.</t>
+  </si>
+  <si>
+    <t>NNNN, CC-NNNN</t>
+  </si>
+  <si>
+    <t>AA NNNNN</t>
+  </si>
+  <si>
+    <r>
+      <t>Two letter postal codes for each of the nation's 18 administrative regions (e.g. AW for Awdal, BN for Banaadir, BR for Bari and SL for Sool).</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[23]</t>
+    </r>
+  </si>
+  <si>
+    <t>Postal codes are allocated to individual Post Office branches, some have two codes to differentiate between P.O. Boxes and street delivery addresses. Included Namibia (ranges 9000–9299) until 1992, no longer used.</t>
+  </si>
+  <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>SIQQ 1ZZ</t>
+  </si>
+  <si>
+    <t>Reference: http://mohanjith.net/ZIPLook/ Incorporates Colombo postal districts, e.g.: Colombo 1 is "00100". You can search for specific postal codes here [3].</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The lowest number is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>100 12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and the highest number is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>984 99</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>With Liechtenstein, ordered from west to east. In Geneva and other big cities, like Basel, Bern, Zürich, there may be one or two digits after the name of the city when the generic City code (1211) is used instead of the area-specific code (1201, 1202...), e.g.: 1211 Geneva 13. The digit identifies the post office. This addressing is generally used for P.O. box deliveries. Büsingen (Germany) and Campione (Italy) have also a Swiss postal code. UPU: Switzerland.</t>
+  </si>
+  <si>
+    <t>Svalbard and Jan Mayen</t>
+  </si>
+  <si>
+    <t>SJ</t>
+  </si>
+  <si>
+    <t>Norway postal codes</t>
+  </si>
+  <si>
+    <t>NNN, NNN-NN, NNN-NNN</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The first three digits of the postal code are required; the last two or three digits are optional. Codes are known as </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>youdi quhao</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (郵遞區號), and are also assigned to Senkaku Islands (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Diaoyutai</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>), though Japanese-administered, Pratas Island and the Spratly Islands. NNN-NNN 3+3 digit codes were launched on March 3, 2020. See List of postal codes in Taiwan.</t>
+    </r>
+  </si>
+  <si>
+    <t>Retained system from former Soviet Union. First two numbers: Republic and Province, Second two numbers: District, last two numbers: Post Office. UPU: Tajikistan. Overview over some numbers.</t>
+  </si>
+  <si>
+    <t>2012 (planned)</t>
+  </si>
+  <si>
+    <t>First two digits are the city numbers.[24]</t>
+  </si>
+  <si>
+    <t>TKCA 1ZZ</t>
+  </si>
+  <si>
+    <t>Phased introduction, from 1966 to 1974. Still in use.</t>
+  </si>
+  <si>
+    <t>A[A]N[A/N]</t>
+  </si>
+  <si>
+    <t>A[A]N[A/N] NAA</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Known as the postcode. The first letter(s) indicate the postal area, such as the town or part of London. Placed on a separate line below the city (or county, if used). The UK postcode is made up of two parts separated by a space. These are known as the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>outward postcode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>inward postcode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. The outward postcode is always one of the following formats: AN, ANN, AAN, AANN, ANA, AANA, AAA. The inward postcode is always formatted as NAA. A valid inward postcode never contains the letters: C, I, K, M, O or V. The British Forces Post Office has a different system, but as of 2012 has also adopted UK-style postcodes that begin with "BF1" for electronic compatibility.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Known as the ZIP Code with five digits </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>99999*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or the ZIP+4 Code with nine digits </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>99999-9999*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (while the minimum requirement is the first five digits, the U.S. Postal Service encourages everyone to use all nine). Also used by the former US Pacific Territories: Federated States of Micronesia; Palau; and the Marshall Islands, as well as in current US territories American Samoa, Guam, Northern Mariana Islands, Puerto Rico, and the United States Virgin Islands. An individual delivery point may be represented as an 11-digit number, but these are usually represented by Intelligent Mail barcode or formerly POSTNET bar code.</t>
+    </r>
+  </si>
+  <si>
+    <t>United States Minor Outlying Islands</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>UM</t>
+  </si>
+  <si>
+    <t>Mostly uninhabited. There is only one postal code in use, 96898 Wake Island.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">U.S. ZIP codes. Range </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00801</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>–</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00851</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>NNNN, NNNN-A</t>
+  </si>
+  <si>
+    <t>First two indicate a province.</t>
+  </si>
+  <si>
+    <t>986NN</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Overseas Collectivity of France. French codes used. Range </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>98600</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>98690</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>System for Sana'a Governorate using geocoding "عنواني" based on the OpenPostcode algorithm is inaugurated in 2014.</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[25]</t>
+    </r>
+  </si>
+  <si>
+    <t>System is being planned.</t>
+  </si>
+  <si>
+    <t>[1] The dummy postal code of Hong Kong is 999077.
+However, if you provide this dummy code where your address label will be electronically created, the system may change the destination country to "Hong Kong S.A.R, CHINA". The addition of "CHINA" can significantly delay delivery. Use an alternate dummy instead (e.g. 00000).[citation needed]</t>
+  </si>
+  <si>
+    <t>NNNNNN,
+NNN NNN</t>
+  </si>
+  <si>
+    <t>Note: A valid postcode never contains the letters: B, G, I, J, L, M, O, Q, S, U, Z.[11]
+Ireland's postcode system (called Eircode) refers to individual properties – not to streets/areas. It is presented in the format A12 A1BC The first 3 characters are a routing key referring to a postal district, and the second 4 characters are a unique, pseudorandom identifier for individual properties. The codes are only used in full 7-character format. See: www.eircode.ie for more information. See also Republic of Ireland postal addresses.</t>
+  </si>
+  <si>
+    <t>[D6W/ANN] Archived 2012-06-21 at the Wayback Machine [A/N][A/N][A/N][A/N]
+(Single exception where its D6W ????) [10]</t>
+  </si>
+  <si>
+    <t>Before suspension: CCAAANN. Jamaica currently has no national postal code system, except for Kingston and Lower St. Andrew, which are divided into postal districts numbered 1-20[12]
+Before the 2007 suspension, the first two letters of a national post code were always 'JM' (for Jamaica) while the third was for one of the four zones (A-D) into which the island was divided. The last two letters were for the parish, while the two digits were for the local post office.[13]</t>
+  </si>
+  <si>
+    <t>CCN NAA
+CCNN NAA</t>
+  </si>
+  <si>
+    <t>NNNNN
+NNNN NNNN</t>
+  </si>
+  <si>
+    <t>NNNNN
+NNNNN-NNNN</t>
+  </si>
+  <si>
     <r>
       <t>Formerly used South African postal code ranges from 9000-9299.</t>
     </r>
@@ -2798,775 +3544,23 @@
       </rPr>
       <t>[19]</t>
     </r>
-  </si>
-  <si>
-    <t>Namibia has introduced a 5-digit postal code.[20]</t>
-  </si>
-  <si>
-    <t>The combination of the postal code and the house number gives a unique identifier of the address. The four numbers indicate an area, the two letters indicate a group of some 25 habitations, offices, factories, or post office boxes.</t>
-  </si>
-  <si>
-    <t>988NN</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Overseas Collectivity of France. French codes used. Range </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>98800</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>–</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>98890</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>2008-06</t>
-  </si>
-  <si>
-    <t>North Macedonia</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">U.S. ZIP codes. Range </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>96950</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>–</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>96952</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>Deliveries to P.O. Boxes only. Oman Postal code for postoffice list/</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">U.S. ZIP codes. All locations </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>96939</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> or </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>96940</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>Palestine</t>
-  </si>
-  <si>
-    <t>PS</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">not yet implemented in practice. Codes </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>100-899</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> are in the Westbank, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>900-999</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> in the Gaza Strip</t>
-    </r>
-  </si>
-  <si>
-    <t>NNNNN, CC NNNN</t>
-  </si>
-  <si>
-    <t>PCRN 1ZZ</t>
-  </si>
-  <si>
-    <t>Single code used(AAAA NAA). UK territory, but not UK postcode</t>
-  </si>
-  <si>
-    <t>NN-NNN</t>
-  </si>
-  <si>
-    <t>(PNA) Pocztowy Numer Adresowy</t>
-  </si>
-  <si>
-    <t>NNNN-NNN</t>
-  </si>
-  <si>
-    <t>U.S. ZIP codes. ZIP codes 006XX for NW PR, 007XX for SE PR, in which XX designates the town or post office and 009XX for the San Juan Metropolitan Area, in which XX designates the area or borough of San Juan. The last four digits identify an area within the post office. For example, 00716-2604: 00716-for the east section of the city of Ponce and 2604 for Aceitillo St. in the neighborhood of Los Caobos. US Post office is changing the PR address format to the American one: 1234 No Name Avenue, San Juan, PR 00901.</t>
-  </si>
-  <si>
-    <t>974NN</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Overseas Department of France. French codes used. Range </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>97400</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>–</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>97490</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>Rwanda</t>
-  </si>
-  <si>
-    <t>RW</t>
-  </si>
-  <si>
-    <t>Overseas Collectivity of France. French codes used, still within the same range used for Guadeloupe</t>
-  </si>
-  <si>
-    <t>Saint Helena, Ascension and Tristan da Cunha</t>
-  </si>
-  <si>
-    <t>AAAA 1ZZ</t>
-  </si>
-  <si>
-    <t>Part of UK system (AAAA NAA). Saint Helena uses one code STHL 1ZZ, Ascension uses one code ASCN 1ZZ, Tristan da Cunha uses one code TDCU 1ZZ.</t>
-  </si>
-  <si>
-    <t>CCNN NNN</t>
-  </si>
-  <si>
-    <t>The first two letters are always LC. There are two spaces between the second and third digits.</t>
-  </si>
-  <si>
-    <t>Overseas Collectivity of France. French codes used.</t>
-  </si>
-  <si>
-    <t>Samoa</t>
-  </si>
-  <si>
-    <t>WS</t>
-  </si>
-  <si>
-    <t>4789N</t>
-  </si>
-  <si>
-    <t>With Italy, uses a five-digit numeric CAP of Emilia Romagna. Range 47890 and 47899</t>
-  </si>
-  <si>
-    <t>São Tomé and Príncipe</t>
-  </si>
-  <si>
-    <t>NNNNN-NNNN, NNNNN</t>
-  </si>
-  <si>
-    <r>
-      <t>NNNNN for PO Boxes. NNNNN-NNNN for home delivery. A complete 13-digit code has 5-digit number representing region, sector, city, and zone; 4-digit X between 2000 and 5999; 4-digit Y between 6000 and 9999.</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[21]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Digits of 5-digit code may represent postal region, sector, branch, section, and block respectively.</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[22]</t>
-    </r>
-  </si>
-  <si>
-    <t>with Czech Republic from west to east, Poštové smerovacie číslo (PSČ) – postal routing number. The first digit is from 8, 9, 0.</t>
-  </si>
-  <si>
-    <t>NNNN, CC-NNNN</t>
-  </si>
-  <si>
-    <t>AA NNNNN</t>
-  </si>
-  <si>
-    <r>
-      <t>Two letter postal codes for each of the nation's 18 administrative regions (e.g. AW for Awdal, BN for Banaadir, BR for Bari and SL for Sool).</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[23]</t>
-    </r>
-  </si>
-  <si>
-    <t>Postal codes are allocated to individual Post Office branches, some have two codes to differentiate between P.O. Boxes and street delivery addresses. Included Namibia (ranges 9000–9299) until 1992, no longer used.</t>
-  </si>
-  <si>
-    <t>South Sudan</t>
-  </si>
-  <si>
-    <t>SS</t>
-  </si>
-  <si>
-    <t>SIQQ 1ZZ</t>
-  </si>
-  <si>
-    <t>Reference: http://mohanjith.net/ZIPLook/ Incorporates Colombo postal districts, e.g.: Colombo 1 is "00100". You can search for specific postal codes here [3].</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The lowest number is </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>100 12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and the highest number is </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>984 99</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>With Liechtenstein, ordered from west to east. In Geneva and other big cities, like Basel, Bern, Zürich, there may be one or two digits after the name of the city when the generic City code (1211) is used instead of the area-specific code (1201, 1202...), e.g.: 1211 Geneva 13. The digit identifies the post office. This addressing is generally used for P.O. box deliveries. Büsingen (Germany) and Campione (Italy) have also a Swiss postal code. UPU: Switzerland.</t>
-  </si>
-  <si>
-    <t>Svalbard and Jan Mayen</t>
-  </si>
-  <si>
-    <t>SJ</t>
-  </si>
-  <si>
-    <t>Norway postal codes</t>
-  </si>
-  <si>
-    <t>NNN, NNN-NN, NNN-NNN</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The first three digits of the postal code are required; the last two or three digits are optional. Codes are known as </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>youdi quhao</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (郵遞區號), and are also assigned to Senkaku Islands (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Diaoyutai</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>), though Japanese-administered, Pratas Island and the Spratly Islands. NNN-NNN 3+3 digit codes were launched on March 3, 2020. See List of postal codes in Taiwan.</t>
-    </r>
-  </si>
-  <si>
-    <t>Retained system from former Soviet Union. First two numbers: Republic and Province, Second two numbers: District, last two numbers: Post Office. UPU: Tajikistan. Overview over some numbers.</t>
-  </si>
-  <si>
-    <t>2012 (planned)</t>
-  </si>
-  <si>
-    <t>First two digits are the city numbers.[24]</t>
-  </si>
-  <si>
-    <t>TKCA 1ZZ</t>
-  </si>
-  <si>
-    <t>Phased introduction, from 1966 to 1974. Still in use.</t>
-  </si>
-  <si>
-    <t>A[A]N[A/N]</t>
-  </si>
-  <si>
-    <t>A[A]N[A/N] NAA</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Known as the postcode. The first letter(s) indicate the postal area, such as the town or part of London. Placed on a separate line below the city (or county, if used). The UK postcode is made up of two parts separated by a space. These are known as the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>outward postcode</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>inward postcode</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. The outward postcode is always one of the following formats: AN, ANN, AAN, AANN, ANA, AANA, AAA. The inward postcode is always formatted as NAA. A valid inward postcode never contains the letters: C, I, K, M, O or V. The British Forces Post Office has a different system, but as of 2012 has also adopted UK-style postcodes that begin with "BF1" for electronic compatibility.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Known as the ZIP Code with five digits </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>99999*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> or the ZIP+4 Code with nine digits </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>99999-9999*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (while the minimum requirement is the first five digits, the U.S. Postal Service encourages everyone to use all nine). Also used by the former US Pacific Territories: Federated States of Micronesia; Palau; and the Marshall Islands, as well as in current US territories American Samoa, Guam, Northern Mariana Islands, Puerto Rico, and the United States Virgin Islands. An individual delivery point may be represented as an 11-digit number, but these are usually represented by Intelligent Mail barcode or formerly POSTNET bar code.</t>
-    </r>
-  </si>
-  <si>
-    <t>United States Minor Outlying Islands</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>UM</t>
-  </si>
-  <si>
-    <t>Mostly uninhabited. There is only one postal code in use, 96898 Wake Island.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">U.S. ZIP codes. Range </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00801</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>–</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00851</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>NNNN, NNNN-A</t>
-  </si>
-  <si>
-    <t>First two indicate a province.</t>
-  </si>
-  <si>
-    <t>986NN</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Overseas Collectivity of France. French codes used. Range </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>98600</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> – </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>98690</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>System for Sana'a Governorate using geocoding "عنواني" based on the OpenPostcode algorithm is inaugurated in 2014.</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[25]</t>
-    </r>
-  </si>
-  <si>
-    <t>System is being planned.</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Namibia has introduced a 5-digit postal code.[20]</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3956,10 +3950,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="24">
     <cellStyle name="Akzent1" xfId="1" builtinId="29" customBuiltin="1"/>
@@ -4320,11 +4314,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F264"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F254"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="E158" sqref="E158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4332,13 +4326,14 @@
     <col min="1" max="1" width="42.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="39.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="85.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -4350,10 +4345,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>537</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -4370,24 +4365,24 @@
         <v>7</v>
       </c>
       <c r="E2" s="3"/>
-      <c r="F2" s="9" t="s">
-        <v>539</v>
+      <c r="F2" s="8" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -4420,11 +4415,11 @@
         <v>4</v>
       </c>
       <c r="E5" s="3"/>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="8" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>15</v>
       </c>
@@ -4435,11 +4430,11 @@
         <v>16</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -4456,7 +4451,7 @@
         <v>12</v>
       </c>
       <c r="E7" s="3"/>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="8" t="s">
         <v>234</v>
       </c>
     </row>
@@ -4469,7 +4464,7 @@
         <v>236</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -4485,7 +4480,7 @@
         <v>238</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
@@ -4501,7 +4496,7 @@
         <v>241</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -4511,7 +4506,7 @@
         <v>13</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>14</v>
@@ -4520,10 +4515,10 @@
         <v>7</v>
       </c>
       <c r="E11" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>548</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -4541,7 +4536,7 @@
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -4553,7 +4548,7 @@
         <v>243</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -4591,7 +4586,7 @@
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -4603,11 +4598,11 @@
         <v>24</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -4619,7 +4614,7 @@
         <v>246</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -4633,11 +4628,11 @@
         <v>248</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -4668,8 +4663,8 @@
         <v>30</v>
       </c>
       <c r="E20" s="3"/>
-      <c r="F20" s="9" t="s">
-        <v>555</v>
+      <c r="F20" s="8" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -4713,7 +4708,7 @@
         <v>252</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -4727,7 +4722,7 @@
         <v>254</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -4741,13 +4736,13 @@
         <v>256</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E25" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="F25" s="8" t="s">
         <v>556</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4764,8 +4759,8 @@
         <v>4</v>
       </c>
       <c r="E26" s="3"/>
-      <c r="F26" s="9" t="s">
-        <v>558</v>
+      <c r="F26" s="8" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -4777,21 +4772,21 @@
         <v>260</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="7" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -4819,7 +4814,7 @@
         <v>262</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -4835,13 +4830,13 @@
         <v>39</v>
       </c>
       <c r="D31" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="E31" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="F31" s="3" t="s">
         <v>562</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -4850,14 +4845,14 @@
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>564</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>565</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -4869,11 +4864,11 @@
         <v>41</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -4888,8 +4883,8 @@
         <v>25</v>
       </c>
       <c r="E34" s="3"/>
-      <c r="F34" s="9" t="s">
-        <v>568</v>
+      <c r="F34" s="8" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -4931,7 +4926,7 @@
         <v>265</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -4945,7 +4940,7 @@
         <v>267</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -4955,7 +4950,7 @@
         <v>49</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>50</v>
@@ -4965,7 +4960,7 @@
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -4977,7 +4972,7 @@
         <v>269</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -4987,7 +4982,7 @@
         <v>51</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>52</v>
@@ -5039,7 +5034,7 @@
         <v>275</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -5053,12 +5048,12 @@
         <v>277</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
     </row>
-    <row r="46" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>57</v>
       </c>
@@ -5067,7 +5062,7 @@
         <v>58</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3" t="s">
@@ -5087,7 +5082,7 @@
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -5135,7 +5130,7 @@
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -5147,7 +5142,7 @@
         <v>285</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -5161,7 +5156,7 @@
         <v>287</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -5175,7 +5170,7 @@
         <v>289</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -5189,7 +5184,7 @@
         <v>291</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -5199,7 +5194,7 @@
         <v>63</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>64</v>
@@ -5208,10 +5203,10 @@
         <v>4</v>
       </c>
       <c r="E55" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="F55" s="3" t="s">
         <v>576</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -5223,7 +5218,7 @@
         <v>293</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
@@ -5267,7 +5262,7 @@
         <v>298</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
@@ -5286,8 +5281,8 @@
         <v>7</v>
       </c>
       <c r="E60" s="3"/>
-      <c r="F60" s="9" t="s">
-        <v>578</v>
+      <c r="F60" s="8" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -5305,7 +5300,7 @@
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="32.25" x14ac:dyDescent="0.25">
@@ -5323,7 +5318,7 @@
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -5335,7 +5330,7 @@
         <v>300</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
@@ -5349,7 +5344,7 @@
         <v>302</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
@@ -5377,7 +5372,7 @@
         <v>306</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3" t="s">
@@ -5437,7 +5432,7 @@
         <v>311</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
@@ -5451,7 +5446,7 @@
         <v>313</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
@@ -5472,18 +5467,18 @@
     </row>
     <row r="73" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B73" s="3"/>
       <c r="C73" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="D73" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="D73" s="3" t="s">
-        <v>491</v>
-      </c>
       <c r="E73" s="3"/>
-      <c r="F73" s="9" t="s">
-        <v>582</v>
+      <c r="F73" s="8" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -5498,7 +5493,7 @@
         <v>7</v>
       </c>
       <c r="E74" s="3"/>
-      <c r="F74" s="9" t="s">
+      <c r="F74" s="8" t="s">
         <v>316</v>
       </c>
     </row>
@@ -5511,11 +5506,11 @@
         <v>80</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E75" s="3"/>
       <c r="F75" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -5527,11 +5522,11 @@
         <v>318</v>
       </c>
       <c r="D76" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="E76" s="3"/>
+      <c r="F76" s="8" t="s">
         <v>585</v>
-      </c>
-      <c r="E76" s="3"/>
-      <c r="F76" s="9" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -5543,7 +5538,7 @@
         <v>320</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
@@ -5563,7 +5558,7 @@
       </c>
       <c r="E78" s="3"/>
       <c r="F78" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="75" x14ac:dyDescent="0.25">
@@ -5581,7 +5576,7 @@
       </c>
       <c r="E79" s="3"/>
       <c r="F79" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -5593,11 +5588,11 @@
         <v>322</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E80" s="3"/>
       <c r="F80" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -5609,11 +5604,11 @@
         <v>324</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E81" s="3"/>
       <c r="F81" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -5625,11 +5620,11 @@
         <v>326</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E82" s="3"/>
       <c r="F82" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -5641,7 +5636,7 @@
         <v>328</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
@@ -5655,7 +5650,7 @@
         <v>330</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E84" s="3"/>
       <c r="F84" s="3"/>
@@ -5679,7 +5674,7 @@
         <v>87</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>90</v>
@@ -5697,7 +5692,7 @@
         <v>87</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C87" s="7" t="s">
         <v>90</v>
@@ -5707,7 +5702,7 @@
       </c>
       <c r="E87" s="3"/>
       <c r="F87" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -5724,8 +5719,8 @@
         <v>4</v>
       </c>
       <c r="E88" s="3"/>
-      <c r="F88" s="9" t="s">
-        <v>597</v>
+      <c r="F88" s="8" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -5739,11 +5734,11 @@
         <v>332</v>
       </c>
       <c r="D89" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="E89" s="3"/>
+      <c r="F89" s="8" t="s">
         <v>598</v>
-      </c>
-      <c r="E89" s="3"/>
-      <c r="F89" s="9" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -5755,7 +5750,7 @@
         <v>334</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E90" s="3"/>
       <c r="F90" s="3" t="s">
@@ -5803,7 +5798,7 @@
         <v>340</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
@@ -5817,14 +5812,14 @@
         <v>342</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E94" s="3"/>
       <c r="F94" s="3" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
         <v>93</v>
       </c>
@@ -5835,11 +5830,11 @@
         <v>94</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E95" s="3"/>
       <c r="F95" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -5869,11 +5864,11 @@
         <v>96</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E97" s="3"/>
       <c r="F97" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -5913,7 +5908,7 @@
         <v>351</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E100" s="3"/>
       <c r="F100" s="3"/>
@@ -5941,7 +5936,7 @@
         <v>355</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E102" s="3"/>
       <c r="F102" s="3"/>
@@ -5955,752 +5950,804 @@
         <v>357</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E103" s="3"/>
       <c r="F103" s="3" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A104" s="9" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="8" t="s">
+      <c r="B104" s="5"/>
+      <c r="C104" s="9" t="s">
         <v>608</v>
       </c>
-      <c r="B104" s="5"/>
-      <c r="C104" s="8" t="s">
+      <c r="D104" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="E104" s="5"/>
+      <c r="F104" s="8" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A105" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B105" s="3">
+        <v>1973</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E105" s="3"/>
+      <c r="F105" s="3" t="s">
         <v>609</v>
       </c>
-      <c r="D104" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="E104" s="5"/>
-      <c r="F104" s="9" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="8"/>
-      <c r="B105" s="5"/>
-      <c r="C105" s="8"/>
-      <c r="D105" s="5"/>
-      <c r="E105" s="5"/>
-      <c r="F105" s="3"/>
-    </row>
-    <row r="106" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A106" s="8"/>
-      <c r="B106" s="5"/>
-      <c r="C106" s="8"/>
-      <c r="D106" s="5"/>
-      <c r="E106" s="5"/>
-      <c r="F106" s="9" t="s">
-        <v>611</v>
-      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B106" s="3"/>
+      <c r="C106" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E106" s="3"/>
+      <c r="F106" s="3"/>
     </row>
     <row r="107" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A107" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B107" s="3">
-        <v>1973</v>
-      </c>
-      <c r="C107" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E107" s="3"/>
-      <c r="F107" s="3" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B107" s="6">
+        <v>26526</v>
+      </c>
+      <c r="C107" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>715</v>
+      </c>
+      <c r="E107" s="5"/>
+      <c r="F107" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B108" s="3"/>
       <c r="C108" s="7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>101</v>
+        <v>4</v>
       </c>
       <c r="E108" s="3"/>
-      <c r="F108" s="3"/>
+      <c r="F108" s="3" t="s">
+        <v>610</v>
+      </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="B109" s="6">
-        <v>26526</v>
-      </c>
-      <c r="C109" s="8" t="s">
-        <v>103</v>
+      <c r="A109" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B109" s="3"/>
+      <c r="C109" s="7" t="s">
+        <v>108</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>613</v>
-      </c>
-      <c r="E109" s="5"/>
-      <c r="F109" s="3" t="s">
-        <v>104</v>
+        <v>109</v>
+      </c>
+      <c r="E109" s="3"/>
+      <c r="F109" s="8" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="8"/>
-      <c r="B110" s="6"/>
-      <c r="C110" s="8"/>
-      <c r="D110" s="3"/>
-      <c r="E110" s="5"/>
+      <c r="A110" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B110" s="3">
+        <v>2004</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E110" s="3"/>
       <c r="F110" s="3"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="8"/>
-      <c r="B111" s="6"/>
-      <c r="C111" s="8"/>
-      <c r="D111" s="3" t="s">
+    <row r="111" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A111" s="9" t="s">
         <v>358</v>
       </c>
-      <c r="E111" s="5"/>
-      <c r="F111" s="3"/>
+      <c r="B111" s="6">
+        <v>42198</v>
+      </c>
+      <c r="C111" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>717</v>
+      </c>
+      <c r="F111" s="8" t="s">
+        <v>716</v>
+      </c>
     </row>
     <row r="112" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="B112" s="3"/>
+        <v>112</v>
+      </c>
+      <c r="B112" s="3">
+        <v>1993</v>
+      </c>
       <c r="C112" s="7" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>4</v>
+        <v>613</v>
       </c>
       <c r="E112" s="3"/>
       <c r="F112" s="3" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B113" s="3">
+        <v>2013</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="E113" s="3"/>
+      <c r="F113" s="3" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A113" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="B113" s="3"/>
-      <c r="C113" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="D113" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E113" s="3"/>
-      <c r="F113" s="9" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A114" s="7" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B114" s="3">
-        <v>2004</v>
+        <v>1967</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="D114" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E114" s="3"/>
-      <c r="F114" s="3"/>
-    </row>
-    <row r="115" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A115" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="B115" s="6">
-        <v>42198</v>
-      </c>
-      <c r="C115" s="8" t="s">
-        <v>360</v>
-      </c>
-      <c r="D115" s="3" t="s">
+      <c r="F114" s="3" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A115" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="B115" s="5">
+        <v>2007</v>
+      </c>
+      <c r="C115" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E115" s="5"/>
+      <c r="F115" s="8" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B116" s="3">
+        <v>1968</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D116" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="E115" s="3" t="s">
-        <v>618</v>
-      </c>
-      <c r="F115" s="9" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" s="8"/>
-      <c r="B116" s="6"/>
-      <c r="C116" s="8"/>
-      <c r="D116" s="3"/>
       <c r="E116" s="3"/>
-      <c r="F116" s="3"/>
-    </row>
-    <row r="117" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A117" s="8"/>
-      <c r="B117" s="6"/>
-      <c r="C117" s="8"/>
+      <c r="F116" s="8" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A117" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B117" s="3">
+        <v>1994</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>121</v>
+      </c>
       <c r="D117" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="E117" s="3"/>
+      <c r="F117" s="3" t="s">
         <v>617</v>
       </c>
-      <c r="E117" s="7" t="s">
-        <v>619</v>
-      </c>
-      <c r="F117" s="9" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="B118" s="3">
-        <v>1993</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="B118" s="3"/>
       <c r="C118" s="7" t="s">
-        <v>113</v>
+        <v>366</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>622</v>
+        <v>4</v>
       </c>
       <c r="E118" s="3"/>
       <c r="F118" s="3" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="B119" s="3">
-        <v>2013</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="B119" s="3"/>
       <c r="C119" s="7" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>362</v>
+        <v>33</v>
       </c>
       <c r="E119" s="3"/>
-      <c r="F119" s="3" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="F119" s="8" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="B120" s="3">
-        <v>1967</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="B120" s="3"/>
       <c r="C120" s="7" t="s">
-        <v>117</v>
+        <v>369</v>
       </c>
       <c r="D120" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E120" s="3"/>
       <c r="F120" s="3" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A121" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="B121" s="5">
-        <v>2007</v>
-      </c>
-      <c r="C121" s="8" t="s">
-        <v>364</v>
-      </c>
-      <c r="D121" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E121" s="5"/>
-      <c r="F121" s="9" t="s">
-        <v>625</v>
-      </c>
+        <v>619</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="B121" s="3"/>
+      <c r="C121" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="E121" s="3"/>
+      <c r="F121" s="3"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="8"/>
-      <c r="B122" s="5"/>
-      <c r="C122" s="8"/>
-      <c r="D122" s="5"/>
-      <c r="E122" s="5"/>
+      <c r="A122" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="B122" s="3"/>
+      <c r="C122" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="E122" s="3"/>
       <c r="F122" s="3"/>
     </row>
-    <row r="123" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A123" s="8"/>
-      <c r="B123" s="5"/>
-      <c r="C123" s="8"/>
-      <c r="D123" s="5"/>
-      <c r="E123" s="5"/>
-      <c r="F123" s="9" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="B123" s="4">
+        <v>42217</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E123" s="3"/>
+      <c r="F123" s="3" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A124" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="B124" s="3">
-        <v>1968</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="B124" s="3"/>
       <c r="C124" s="7" t="s">
-        <v>119</v>
+        <v>376</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>627</v>
+        <v>4</v>
       </c>
       <c r="E124" s="3"/>
-      <c r="F124" s="9" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F124" s="8" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="B125" s="3">
-        <v>1994</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="B125" s="3"/>
       <c r="C125" s="7" t="s">
-        <v>121</v>
+        <v>379</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>622</v>
+        <v>4</v>
       </c>
       <c r="E125" s="3"/>
       <c r="F125" s="3" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="7" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
       <c r="B126" s="3"/>
       <c r="C126" s="7" t="s">
-        <v>367</v>
+        <v>381</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="E126" s="3"/>
-      <c r="F126" s="3" t="s">
-        <v>368</v>
-      </c>
+      <c r="F126" s="3"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
-        <v>122</v>
+        <v>382</v>
       </c>
       <c r="B127" s="3"/>
       <c r="C127" s="7" t="s">
-        <v>123</v>
+        <v>383</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="E127" s="3"/>
-      <c r="F127" s="9" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F127" s="3"/>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="7" t="s">
-        <v>369</v>
+        <v>124</v>
       </c>
       <c r="B128" s="3"/>
       <c r="C128" s="7" t="s">
-        <v>370</v>
+        <v>125</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>4</v>
+        <v>126</v>
       </c>
       <c r="E128" s="3"/>
-      <c r="F128" s="3" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F128" s="3"/>
+    </row>
+    <row r="129" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="B129" s="3"/>
       <c r="C129" s="7" t="s">
-        <v>372</v>
+        <v>385</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>545</v>
+        <v>720</v>
       </c>
       <c r="E129" s="3"/>
-      <c r="F129" s="3"/>
+      <c r="F129" s="8" t="s">
+        <v>386</v>
+      </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="B130" s="3"/>
       <c r="C130" s="7" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>545</v>
+        <v>101</v>
       </c>
       <c r="E130" s="3"/>
       <c r="F130" s="3"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="B131" s="4">
-        <v>42217</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="B131" s="3"/>
       <c r="C131" s="7" t="s">
-        <v>198</v>
+        <v>390</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E131" s="3"/>
       <c r="F131" s="3" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="7" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="B132" s="3"/>
       <c r="C132" s="7" t="s">
-        <v>377</v>
+        <v>393</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>4</v>
+        <v>544</v>
       </c>
       <c r="E132" s="3"/>
-      <c r="F132" s="9" t="s">
-        <v>378</v>
-      </c>
+      <c r="F132" s="3"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="B133" s="3"/>
+        <v>127</v>
+      </c>
+      <c r="B133" s="3">
+        <v>1964</v>
+      </c>
       <c r="C133" s="7" t="s">
-        <v>380</v>
+        <v>128</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E133" s="3"/>
       <c r="F133" s="3" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A134" s="7" t="s">
-        <v>381</v>
+        <v>129</v>
       </c>
       <c r="B134" s="3"/>
       <c r="C134" s="7" t="s">
-        <v>382</v>
+        <v>130</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>33</v>
+        <v>623</v>
       </c>
       <c r="E134" s="3"/>
-      <c r="F134" s="3"/>
+      <c r="F134" s="3" t="s">
+        <v>624</v>
+      </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="7" t="s">
-        <v>383</v>
+        <v>131</v>
       </c>
       <c r="B135" s="3"/>
       <c r="C135" s="7" t="s">
-        <v>384</v>
+        <v>132</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E135" s="3"/>
-      <c r="F135" s="3"/>
+      <c r="F135" s="8" t="s">
+        <v>625</v>
+      </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="7" t="s">
-        <v>124</v>
+        <v>394</v>
       </c>
       <c r="B136" s="3"/>
       <c r="C136" s="7" t="s">
-        <v>125</v>
+        <v>395</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>126</v>
+        <v>544</v>
       </c>
       <c r="E136" s="3"/>
-      <c r="F136" s="3"/>
-    </row>
-    <row r="137" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="F136" s="8" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="7" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="B137" s="3"/>
       <c r="C137" s="7" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>633</v>
+        <v>101</v>
       </c>
       <c r="E137" s="3"/>
-      <c r="F137" s="9" t="s">
-        <v>387</v>
-      </c>
+      <c r="F137" s="3"/>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="7" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="B138" s="3"/>
       <c r="C138" s="7" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>101</v>
+        <v>33</v>
       </c>
       <c r="E138" s="3"/>
-      <c r="F138" s="3"/>
+      <c r="F138" s="8" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="7" t="s">
-        <v>390</v>
+        <v>133</v>
       </c>
       <c r="B139" s="3"/>
       <c r="C139" s="7" t="s">
-        <v>391</v>
+        <v>134</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E139" s="3"/>
-      <c r="F139" s="3" t="s">
-        <v>392</v>
-      </c>
+      <c r="F139" s="3"/>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="7" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="B140" s="3"/>
       <c r="C140" s="7" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>545</v>
+        <v>4</v>
       </c>
       <c r="E140" s="3"/>
       <c r="F140" s="3"/>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="B141" s="3">
-        <v>1964</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="B141" s="3"/>
       <c r="C141" s="7" t="s">
-        <v>128</v>
+        <v>404</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>7</v>
+        <v>544</v>
       </c>
       <c r="E141" s="3"/>
-      <c r="F141" s="3" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F141" s="3"/>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="7" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B142" s="3"/>
       <c r="C142" s="7" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="E142" s="3"/>
       <c r="F142" s="3" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="B143" s="3"/>
+        <v>137</v>
+      </c>
+      <c r="B143" s="4">
+        <v>23193</v>
+      </c>
       <c r="C143" s="7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>7</v>
+        <v>721</v>
       </c>
       <c r="E143" s="3"/>
-      <c r="F143" s="9" t="s">
-        <v>637</v>
+      <c r="F143" s="3" t="s">
+        <v>629</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="7" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="B144" s="3"/>
       <c r="C144" s="7" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E144" s="3"/>
-      <c r="F144" s="9" t="s">
-        <v>638</v>
-      </c>
+      <c r="F144" s="3"/>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="7" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="B145" s="3"/>
       <c r="C145" s="7" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>101</v>
+        <v>4</v>
       </c>
       <c r="E145" s="3"/>
       <c r="F145" s="3"/>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="7" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="B146" s="3"/>
       <c r="C146" s="7" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>33</v>
+        <v>630</v>
       </c>
       <c r="E146" s="3"/>
-      <c r="F146" s="9" t="s">
-        <v>639</v>
+      <c r="F146" s="3" t="s">
+        <v>631</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="7" t="s">
-        <v>133</v>
+        <v>412</v>
       </c>
       <c r="B147" s="3"/>
       <c r="C147" s="7" t="s">
-        <v>134</v>
+        <v>413</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>4</v>
+        <v>632</v>
       </c>
       <c r="E147" s="3"/>
-      <c r="F147" s="3"/>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F147" s="3" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A148" s="7" t="s">
-        <v>402</v>
+        <v>139</v>
       </c>
       <c r="B148" s="3"/>
       <c r="C148" s="7" t="s">
-        <v>403</v>
+        <v>140</v>
       </c>
       <c r="D148" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E148" s="3"/>
-      <c r="F148" s="3"/>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F148" s="3" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A149" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="B149" s="3"/>
+        <v>141</v>
+      </c>
+      <c r="B149" s="4">
+        <v>23193</v>
+      </c>
       <c r="C149" s="7" t="s">
-        <v>405</v>
+        <v>142</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="E149" s="3"/>
-      <c r="F149" s="3"/>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F149" s="3" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A150" s="7" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B150" s="3"/>
       <c r="C150" s="7" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="E150" s="3"/>
-      <c r="F150" s="3" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="F150" s="3"/>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="B151" s="4">
-        <v>23193</v>
+        <v>145</v>
+      </c>
+      <c r="B151" s="3">
+        <v>1972</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>543</v>
+        <v>637</v>
       </c>
       <c r="E151" s="3"/>
       <c r="F151" s="3" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A152" s="7" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="B152" s="3"/>
       <c r="C152" s="7" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>545</v>
+        <v>4</v>
       </c>
       <c r="E152" s="3"/>
-      <c r="F152" s="3"/>
+      <c r="F152" s="8" t="s">
+        <v>639</v>
+      </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
-        <v>409</v>
+        <v>147</v>
       </c>
       <c r="B153" s="3"/>
       <c r="C153" s="7" t="s">
-        <v>410</v>
+        <v>148</v>
       </c>
       <c r="D153" s="3" t="s">
         <v>4</v>
@@ -6710,1765 +6757,1595 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="7" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="B154" s="3"/>
       <c r="C154" s="7" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="E154" s="3"/>
       <c r="F154" s="3" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="B155" s="3"/>
+        <v>149</v>
+      </c>
+      <c r="B155" s="4">
+        <v>35431</v>
+      </c>
       <c r="C155" s="7" t="s">
-        <v>414</v>
+        <v>150</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>644</v>
+        <v>4</v>
       </c>
       <c r="E155" s="3"/>
-      <c r="F155" s="3" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F155" s="3"/>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="7" t="s">
-        <v>139</v>
+        <v>418</v>
       </c>
       <c r="B156" s="3"/>
       <c r="C156" s="7" t="s">
-        <v>140</v>
+        <v>419</v>
       </c>
       <c r="D156" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E156" s="3"/>
+      <c r="F156" s="3"/>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="B157" s="3"/>
+      <c r="C157" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="D157" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E156" s="3"/>
-      <c r="F156" s="3" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A157" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="B157" s="4">
-        <v>23193</v>
-      </c>
-      <c r="C157" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="D157" s="3" t="s">
-        <v>543</v>
-      </c>
       <c r="E157" s="3"/>
-      <c r="F157" s="3" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A158" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="B158" s="3"/>
-      <c r="C158" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="D158" s="3" t="s">
-        <v>648</v>
-      </c>
-      <c r="E158" s="3"/>
-      <c r="F158" s="3"/>
+      <c r="F157" s="3"/>
+    </row>
+    <row r="158" spans="1:6" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A158" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="B158" s="5"/>
+      <c r="C158" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="D158" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E158" s="5"/>
+      <c r="F158" s="5" t="s">
+        <v>722</v>
+      </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="B159" s="3">
-        <v>1972</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="B159" s="3"/>
       <c r="C159" s="7" t="s">
-        <v>146</v>
+        <v>425</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>649</v>
+        <v>544</v>
       </c>
       <c r="E159" s="3"/>
-      <c r="F159" s="3" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F159" s="3"/>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="7" t="s">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="B160" s="3"/>
       <c r="C160" s="7" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="D160" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E160" s="3"/>
-      <c r="F160" s="9" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F160" s="3"/>
+    </row>
+    <row r="161" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A161" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="B161" s="3"/>
+        <v>151</v>
+      </c>
+      <c r="B161" s="3">
+        <v>1977</v>
+      </c>
       <c r="C161" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E161" s="3"/>
-      <c r="F161" s="3"/>
+        <v>544</v>
+      </c>
+      <c r="E161" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="F161" s="3" t="s">
+        <v>642</v>
+      </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="7" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="B162" s="3"/>
       <c r="C162" s="7" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="E162" s="3"/>
       <c r="F162" s="3" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A163" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="B163" s="4">
-        <v>35431</v>
+        <v>153</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>645</v>
       </c>
       <c r="C163" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E163" s="3"/>
-      <c r="F163" s="3"/>
+      <c r="F163" s="3" t="s">
+        <v>431</v>
+      </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="7" t="s">
-        <v>419</v>
+        <v>432</v>
       </c>
       <c r="B164" s="3"/>
       <c r="C164" s="7" t="s">
-        <v>420</v>
+        <v>156</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E164" s="3"/>
       <c r="F164" s="3"/>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="7" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
       <c r="B165" s="3"/>
       <c r="C165" s="7" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E165" s="3"/>
       <c r="F165" s="3"/>
     </row>
-    <row r="166" spans="1:6" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A166" s="8" t="s">
-        <v>423</v>
-      </c>
-      <c r="B166" s="5"/>
-      <c r="C166" s="8" t="s">
-        <v>424</v>
-      </c>
-      <c r="D166" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E166" s="5"/>
-      <c r="F166" s="3" t="s">
-        <v>654</v>
-      </c>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B166" s="3"/>
+      <c r="C166" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E166" s="3"/>
+      <c r="F166" s="3"/>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A167" s="8"/>
-      <c r="B167" s="5"/>
-      <c r="C167" s="8"/>
-      <c r="D167" s="5"/>
-      <c r="E167" s="5"/>
+      <c r="A167" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="B167" s="3"/>
+      <c r="C167" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="E167" s="3"/>
       <c r="F167" s="3"/>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A168" s="8"/>
-      <c r="B168" s="5"/>
-      <c r="C168" s="8"/>
-      <c r="D168" s="5"/>
-      <c r="E168" s="5"/>
-      <c r="F168" s="9" t="s">
-        <v>655</v>
+      <c r="A168" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="B168" s="3"/>
+      <c r="C168" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E168" s="3"/>
+      <c r="F168" s="3" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="7" t="s">
-        <v>425</v>
+        <v>646</v>
       </c>
       <c r="B169" s="3"/>
       <c r="C169" s="7" t="s">
-        <v>426</v>
+        <v>396</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>545</v>
+        <v>7</v>
       </c>
       <c r="E169" s="3"/>
       <c r="F169" s="3"/>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A170" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="B170" s="3"/>
+        <v>157</v>
+      </c>
+      <c r="B170" s="4">
+        <v>23193</v>
+      </c>
       <c r="C170" s="7" t="s">
-        <v>428</v>
+        <v>158</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>4</v>
+        <v>542</v>
       </c>
       <c r="E170" s="3"/>
-      <c r="F170" s="3"/>
-    </row>
-    <row r="171" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="F170" s="3" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="B171" s="3">
-        <v>1977</v>
+        <v>159</v>
+      </c>
+      <c r="B171" s="4">
+        <v>24915</v>
       </c>
       <c r="C171" s="7" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>545</v>
-      </c>
-      <c r="E171" s="3" t="s">
-        <v>429</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="E171" s="3"/>
       <c r="F171" s="3" t="s">
-        <v>656</v>
+        <v>161</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="7" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="B172" s="3"/>
       <c r="C172" s="7" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>657</v>
+        <v>101</v>
       </c>
       <c r="E172" s="3"/>
-      <c r="F172" s="3" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="F172" s="8" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="B173" s="3" t="s">
-        <v>659</v>
+        <v>166</v>
+      </c>
+      <c r="B173" s="4">
+        <v>32143</v>
       </c>
       <c r="C173" s="7" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E173" s="3"/>
-      <c r="F173" s="3" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F173" s="8" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A174" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="B174" s="3"/>
+        <v>162</v>
+      </c>
+      <c r="B174" s="4">
+        <v>23193</v>
+      </c>
       <c r="C174" s="7" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>4</v>
+        <v>542</v>
       </c>
       <c r="E174" s="3"/>
-      <c r="F174" s="3"/>
+      <c r="F174" s="3" t="s">
+        <v>649</v>
+      </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="7" t="s">
-        <v>434</v>
+        <v>650</v>
       </c>
       <c r="B175" s="3"/>
       <c r="C175" s="7" t="s">
-        <v>435</v>
+        <v>651</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="E175" s="3"/>
-      <c r="F175" s="3"/>
+      <c r="F175" s="3" t="s">
+        <v>652</v>
+      </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="7" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="B176" s="3"/>
       <c r="C176" s="7" t="s">
-        <v>436</v>
+        <v>165</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="E176" s="3"/>
       <c r="F176" s="3"/>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="7" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="B177" s="3"/>
       <c r="C177" s="7" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>545</v>
+        <v>101</v>
       </c>
       <c r="E177" s="3"/>
       <c r="F177" s="3"/>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A178" s="7" t="s">
-        <v>439</v>
+      <c r="A178" s="3" t="s">
+        <v>168</v>
       </c>
       <c r="B178" s="3"/>
       <c r="C178" s="7" t="s">
-        <v>440</v>
+        <v>169</v>
       </c>
       <c r="D178" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E178" s="3"/>
-      <c r="F178" s="3" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F178" s="3"/>
+    </row>
+    <row r="179" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A179" s="7" t="s">
-        <v>660</v>
+        <v>445</v>
       </c>
       <c r="B179" s="3"/>
       <c r="C179" s="7" t="s">
-        <v>397</v>
+        <v>446</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>7</v>
+        <v>653</v>
       </c>
       <c r="E179" s="3"/>
       <c r="F179" s="3"/>
     </row>
-    <row r="180" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="B180" s="4">
-        <v>23193</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="B180" s="3"/>
       <c r="C180" s="7" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>543</v>
+        <v>7</v>
       </c>
       <c r="E180" s="3"/>
-      <c r="F180" s="3" t="s">
-        <v>661</v>
-      </c>
+      <c r="F180" s="3"/>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="B181" s="4">
-        <v>24915</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="B181" s="3"/>
       <c r="C181" s="7" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>7</v>
+        <v>654</v>
       </c>
       <c r="E181" s="3"/>
       <c r="F181" s="3" t="s">
-        <v>161</v>
+        <v>655</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="B182" s="3"/>
+        <v>174</v>
+      </c>
+      <c r="B182" s="3">
+        <v>1973</v>
+      </c>
       <c r="C182" s="7" t="s">
-        <v>442</v>
+        <v>175</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>101</v>
+        <v>656</v>
       </c>
       <c r="E182" s="3"/>
-      <c r="F182" s="9" t="s">
-        <v>662</v>
+      <c r="F182" s="3" t="s">
+        <v>657</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="B183" s="4">
-        <v>32143</v>
+        <v>176</v>
+      </c>
+      <c r="B183" s="3">
+        <v>1976</v>
       </c>
       <c r="C183" s="7" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E183" s="3"/>
-      <c r="F183" s="9" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="F183" s="3"/>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="B184" s="4">
+        <v>176</v>
+      </c>
+      <c r="B184" s="3">
+        <v>1994</v>
+      </c>
+      <c r="C184" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D184" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="E184" s="3"/>
+      <c r="F184" s="3"/>
+    </row>
+    <row r="185" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A185" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="B185" s="4">
         <v>23193</v>
       </c>
-      <c r="C184" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="D184" s="3" t="s">
-        <v>543</v>
-      </c>
-      <c r="E184" s="3"/>
-      <c r="F184" s="3" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A185" s="7" t="s">
-        <v>664</v>
-      </c>
-      <c r="B185" s="3"/>
       <c r="C185" s="7" t="s">
-        <v>665</v>
+        <v>179</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>101</v>
+        <v>542</v>
       </c>
       <c r="E185" s="3"/>
       <c r="F185" s="3" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="7" t="s">
-        <v>164</v>
+        <v>447</v>
       </c>
       <c r="B186" s="3"/>
       <c r="C186" s="7" t="s">
-        <v>165</v>
+        <v>448</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>7</v>
+        <v>544</v>
       </c>
       <c r="E186" s="3"/>
       <c r="F186" s="3"/>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="7" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="B187" s="3"/>
       <c r="C187" s="7" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>101</v>
+        <v>660</v>
       </c>
       <c r="E187" s="3"/>
-      <c r="F187" s="3"/>
+      <c r="F187" s="3" t="s">
+        <v>661</v>
+      </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A188" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="B188" s="3"/>
+      <c r="A188" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B188" s="4">
+        <v>37742</v>
+      </c>
       <c r="C188" s="7" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="E188" s="3"/>
-      <c r="F188" s="3"/>
-    </row>
-    <row r="189" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F188" s="8" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="7" t="s">
-        <v>446</v>
+        <v>662</v>
       </c>
       <c r="B189" s="3"/>
       <c r="C189" s="7" t="s">
-        <v>447</v>
+        <v>663</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>667</v>
+        <v>544</v>
       </c>
       <c r="E189" s="3"/>
       <c r="F189" s="3"/>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="B190" s="3"/>
+        <v>182</v>
+      </c>
+      <c r="B190" s="3">
+        <v>1971</v>
+      </c>
       <c r="C190" s="7" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="E190" s="3"/>
-      <c r="F190" s="3"/>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F190" s="3" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A191" s="7" t="s">
-        <v>172</v>
+        <v>453</v>
       </c>
       <c r="B191" s="3"/>
       <c r="C191" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="D191" s="3" t="s">
-        <v>668</v>
+        <v>454</v>
+      </c>
+      <c r="D191" s="3">
+        <v>97133</v>
       </c>
       <c r="E191" s="3"/>
-      <c r="F191" s="3" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F191" s="8" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A192" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="B192" s="3">
-        <v>1973</v>
-      </c>
+        <v>665</v>
+      </c>
+      <c r="B192" s="3"/>
       <c r="C192" s="7" t="s">
-        <v>175</v>
+        <v>455</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="E192" s="3"/>
       <c r="F192" s="3" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="B193" s="3">
-        <v>1976</v>
-      </c>
+        <v>456</v>
+      </c>
+      <c r="B193" s="3"/>
       <c r="C193" s="7" t="s">
-        <v>177</v>
+        <v>457</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E193" s="3"/>
       <c r="F193" s="3"/>
     </row>
-    <row r="194" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="B194" s="3">
-        <v>1994</v>
+        <v>458</v>
+      </c>
+      <c r="B194" s="4">
+        <v>42341</v>
       </c>
       <c r="C194" s="7" t="s">
-        <v>177</v>
+        <v>459</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="E194" s="3"/>
-      <c r="F194" s="3"/>
-    </row>
-    <row r="195" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="F194" s="3" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A195" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="B195" s="4">
-        <v>23193</v>
-      </c>
+        <v>460</v>
+      </c>
+      <c r="B195" s="3"/>
       <c r="C195" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="D195" s="3" t="s">
-        <v>543</v>
+        <v>461</v>
+      </c>
+      <c r="D195" s="3">
+        <v>97150</v>
       </c>
       <c r="E195" s="3"/>
-      <c r="F195" s="3" t="s">
-        <v>673</v>
+      <c r="F195" s="8" t="s">
+        <v>664</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="7" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="B196" s="3"/>
       <c r="C196" s="7" t="s">
-        <v>449</v>
-      </c>
-      <c r="D196" s="3" t="s">
-        <v>545</v>
+        <v>463</v>
+      </c>
+      <c r="D196" s="3">
+        <v>97500</v>
       </c>
       <c r="E196" s="3"/>
-      <c r="F196" s="3"/>
+      <c r="F196" s="3" t="s">
+        <v>670</v>
+      </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="B197" s="3"/>
+        <v>464</v>
+      </c>
+      <c r="B197" s="3">
+        <v>2010</v>
+      </c>
       <c r="C197" s="7" t="s">
-        <v>451</v>
+        <v>465</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>674</v>
+        <v>25</v>
       </c>
       <c r="E197" s="3"/>
-      <c r="F197" s="3" t="s">
-        <v>675</v>
-      </c>
+      <c r="F197" s="3"/>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="B198" s="4">
-        <v>37742</v>
-      </c>
+        <v>671</v>
+      </c>
+      <c r="B198" s="3"/>
       <c r="C198" s="7" t="s">
-        <v>181</v>
+        <v>672</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E198" s="3"/>
-      <c r="F198" s="9" t="s">
-        <v>452</v>
-      </c>
+      <c r="F198" s="3"/>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="7" t="s">
-        <v>676</v>
+        <v>184</v>
       </c>
       <c r="B199" s="3"/>
       <c r="C199" s="7" t="s">
-        <v>677</v>
+        <v>185</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>545</v>
+        <v>673</v>
       </c>
       <c r="E199" s="3"/>
-      <c r="F199" s="3"/>
+      <c r="F199" s="3" t="s">
+        <v>674</v>
+      </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="B200" s="3">
-        <v>1971</v>
-      </c>
+        <v>675</v>
+      </c>
+      <c r="B200" s="3"/>
       <c r="C200" s="7" t="s">
-        <v>183</v>
+        <v>466</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>33</v>
+        <v>544</v>
       </c>
       <c r="E200" s="3"/>
-      <c r="F200" s="3" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F200" s="3"/>
+    </row>
+    <row r="201" spans="1:6" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A201" s="7" t="s">
-        <v>454</v>
+        <v>467</v>
       </c>
       <c r="B201" s="3"/>
       <c r="C201" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="D201" s="3">
-        <v>97133</v>
+        <v>468</v>
+      </c>
+      <c r="D201" s="3" t="s">
+        <v>676</v>
       </c>
       <c r="E201" s="3"/>
-      <c r="F201" s="9" t="s">
-        <v>678</v>
+      <c r="F201" s="3" t="s">
+        <v>677</v>
       </c>
     </row>
     <row r="202" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A202" s="7" t="s">
-        <v>679</v>
+        <v>469</v>
       </c>
       <c r="B202" s="3"/>
       <c r="C202" s="7" t="s">
-        <v>456</v>
+        <v>470</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>680</v>
+        <v>4</v>
       </c>
       <c r="E202" s="3"/>
       <c r="F202" s="3" t="s">
-        <v>681</v>
+        <v>471</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="7" t="s">
-        <v>457</v>
-      </c>
-      <c r="B203" s="3"/>
+        <v>186</v>
+      </c>
+      <c r="B203" s="4">
+        <v>38353</v>
+      </c>
       <c r="C203" s="7" t="s">
-        <v>458</v>
+        <v>187</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="E203" s="3"/>
-      <c r="F203" s="3"/>
+      <c r="F203" s="3" t="s">
+        <v>472</v>
+      </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="B204" s="4">
-        <v>42341</v>
-      </c>
+        <v>473</v>
+      </c>
+      <c r="B204" s="3"/>
       <c r="C204" s="7" t="s">
-        <v>460</v>
+        <v>474</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>682</v>
+        <v>544</v>
       </c>
       <c r="E204" s="3"/>
-      <c r="F204" s="3" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F204" s="3"/>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="7" t="s">
-        <v>461</v>
+        <v>477</v>
       </c>
       <c r="B205" s="3"/>
       <c r="C205" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="D205" s="3">
-        <v>97150</v>
+        <v>478</v>
+      </c>
+      <c r="D205" s="3" t="s">
+        <v>544</v>
       </c>
       <c r="E205" s="3"/>
-      <c r="F205" s="9" t="s">
-        <v>678</v>
-      </c>
+      <c r="F205" s="3"/>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="7" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
       <c r="B206" s="3"/>
       <c r="C206" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="D206" s="3">
-        <v>97500</v>
+        <v>476</v>
+      </c>
+      <c r="D206" s="3" t="s">
+        <v>544</v>
       </c>
       <c r="E206" s="3"/>
-      <c r="F206" s="3" t="s">
-        <v>684</v>
-      </c>
+      <c r="F206" s="3"/>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="7" t="s">
-        <v>465</v>
+        <v>188</v>
       </c>
       <c r="B207" s="3">
-        <v>2010</v>
+        <v>1950</v>
       </c>
       <c r="C207" s="7" t="s">
-        <v>466</v>
+        <v>189</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="E207" s="3"/>
       <c r="F207" s="3"/>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="7" t="s">
-        <v>685</v>
-      </c>
-      <c r="B208" s="3"/>
+        <v>188</v>
+      </c>
+      <c r="B208" s="3">
+        <v>1979</v>
+      </c>
       <c r="C208" s="7" t="s">
-        <v>686</v>
+        <v>189</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="E208" s="3"/>
       <c r="F208" s="3"/>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="B209" s="3"/>
+        <v>188</v>
+      </c>
+      <c r="B209" s="3">
+        <v>1995</v>
+      </c>
       <c r="C209" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>687</v>
+        <v>33</v>
       </c>
       <c r="E209" s="3"/>
       <c r="F209" s="3" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A210" s="7" t="s">
-        <v>689</v>
-      </c>
-      <c r="B210" s="3"/>
+        <v>190</v>
+      </c>
+      <c r="B210" s="3">
+        <v>1973</v>
+      </c>
       <c r="C210" s="7" t="s">
-        <v>467</v>
+        <v>191</v>
       </c>
       <c r="D210" s="3" t="s">
-        <v>545</v>
+        <v>335</v>
       </c>
       <c r="E210" s="3"/>
-      <c r="F210" s="3"/>
-    </row>
-    <row r="211" spans="1:6" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="F210" s="3" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="7" t="s">
-        <v>468</v>
+        <v>192</v>
       </c>
       <c r="B211" s="3"/>
       <c r="C211" s="7" t="s">
-        <v>469</v>
+        <v>193</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>690</v>
+        <v>679</v>
       </c>
       <c r="E211" s="3"/>
-      <c r="F211" s="3" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F211" s="3"/>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="7" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="B212" s="3"/>
       <c r="C212" s="7" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="D212" s="3" t="s">
-        <v>4</v>
+        <v>544</v>
       </c>
       <c r="E212" s="3"/>
-      <c r="F212" s="3" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F212" s="3"/>
+    </row>
+    <row r="213" spans="1:6" ht="32.25" x14ac:dyDescent="0.25">
       <c r="A213" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="B213" s="4">
-        <v>38353</v>
-      </c>
+        <v>482</v>
+      </c>
+      <c r="B213" s="3"/>
       <c r="C213" s="7" t="s">
-        <v>187</v>
+        <v>483</v>
       </c>
       <c r="D213" s="3" t="s">
-        <v>4</v>
+        <v>680</v>
       </c>
       <c r="E213" s="3"/>
       <c r="F213" s="3" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A214" s="7" t="s">
-        <v>474</v>
-      </c>
-      <c r="B214" s="3"/>
+        <v>194</v>
+      </c>
+      <c r="B214" s="3">
+        <v>1973</v>
+      </c>
       <c r="C214" s="7" t="s">
-        <v>475</v>
+        <v>195</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>545</v>
+        <v>7</v>
       </c>
       <c r="E214" s="3"/>
-      <c r="F214" s="3"/>
+      <c r="F214" s="8" t="s">
+        <v>682</v>
+      </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="7" t="s">
-        <v>478</v>
+        <v>683</v>
       </c>
       <c r="B215" s="3"/>
       <c r="C215" s="7" t="s">
-        <v>479</v>
+        <v>684</v>
       </c>
       <c r="D215" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E215" s="3"/>
-      <c r="F215" s="3"/>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="7" t="s">
-        <v>476</v>
+        <v>196</v>
       </c>
       <c r="B216" s="3"/>
       <c r="C216" s="7" t="s">
-        <v>477</v>
+        <v>197</v>
       </c>
       <c r="D216" s="3" t="s">
-        <v>545</v>
+        <v>685</v>
       </c>
       <c r="E216" s="3"/>
-      <c r="F216" s="3"/>
+      <c r="F216" s="3" t="s">
+        <v>484</v>
+      </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="7" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="B217" s="3">
-        <v>1950</v>
+        <v>1976</v>
       </c>
       <c r="C217" s="7" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="D217" s="3" t="s">
-        <v>88</v>
+        <v>4</v>
       </c>
       <c r="E217" s="3"/>
-      <c r="F217" s="3"/>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F217" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A218" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="B218" s="3">
-        <v>1979</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="B218" s="3"/>
       <c r="C218" s="7" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="D218" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E218" s="3"/>
-      <c r="F218" s="3"/>
+      <c r="F218" s="3" t="s">
+        <v>686</v>
+      </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="B219" s="3">
-        <v>1995</v>
-      </c>
+        <v>485</v>
+      </c>
+      <c r="B219" s="3"/>
       <c r="C219" s="7" t="s">
-        <v>189</v>
+        <v>486</v>
       </c>
       <c r="D219" s="3" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="E219" s="3"/>
-      <c r="F219" s="3" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F219" s="3"/>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="B220" s="3">
-        <v>1973</v>
-      </c>
+        <v>487</v>
+      </c>
+      <c r="B220" s="3"/>
       <c r="C220" s="7" t="s">
-        <v>191</v>
+        <v>488</v>
       </c>
       <c r="D220" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="E220" s="3"/>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A221" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="B221" s="4">
+        <v>24970</v>
+      </c>
+      <c r="C221" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="D221" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="E220" s="3"/>
-      <c r="F220" s="3" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A221" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="B221" s="3"/>
-      <c r="C221" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="D221" s="3" t="s">
-        <v>693</v>
-      </c>
       <c r="E221" s="3"/>
-      <c r="F221" s="3"/>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F221" s="3" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A222" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="B222" s="3"/>
+        <v>206</v>
+      </c>
+      <c r="B222" s="3">
+        <v>1964</v>
+      </c>
       <c r="C222" s="7" t="s">
-        <v>482</v>
+        <v>207</v>
       </c>
       <c r="D222" s="3" t="s">
-        <v>545</v>
+        <v>7</v>
       </c>
       <c r="E222" s="3"/>
-      <c r="F222" s="3"/>
-    </row>
-    <row r="223" spans="1:6" ht="32.25" x14ac:dyDescent="0.25">
+      <c r="F222" s="3" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="7" t="s">
-        <v>483</v>
+        <v>689</v>
       </c>
       <c r="B223" s="3"/>
       <c r="C223" s="7" t="s">
-        <v>484</v>
+        <v>690</v>
       </c>
       <c r="D223" s="3" t="s">
-        <v>694</v>
+        <v>7</v>
       </c>
       <c r="E223" s="3"/>
       <c r="F223" s="3" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="B224" s="3">
-        <v>1973</v>
-      </c>
+        <v>491</v>
+      </c>
+      <c r="B224" s="3"/>
       <c r="C224" s="7" t="s">
-        <v>195</v>
+        <v>492</v>
       </c>
       <c r="D224" s="3" t="s">
-        <v>7</v>
+        <v>544</v>
       </c>
       <c r="E224" s="3"/>
-      <c r="F224" s="9" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F224" s="3" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A225" s="7" t="s">
-        <v>697</v>
-      </c>
-      <c r="B225" s="3"/>
+        <v>208</v>
+      </c>
+      <c r="B225" s="4">
+        <v>25647</v>
+      </c>
       <c r="C225" s="7" t="s">
-        <v>698</v>
+        <v>209</v>
       </c>
       <c r="D225" s="3" t="s">
-        <v>545</v>
+        <v>692</v>
       </c>
       <c r="E225" s="3"/>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F225" s="3" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A226" s="7" t="s">
-        <v>196</v>
+        <v>494</v>
       </c>
       <c r="B226" s="3"/>
       <c r="C226" s="7" t="s">
-        <v>197</v>
+        <v>495</v>
       </c>
       <c r="D226" s="3" t="s">
-        <v>699</v>
+        <v>33</v>
       </c>
       <c r="E226" s="3"/>
       <c r="F226" s="3" t="s">
-        <v>485</v>
+        <v>694</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="B227" s="3">
-        <v>1976</v>
-      </c>
+        <v>497</v>
+      </c>
+      <c r="B227" s="3"/>
       <c r="C227" s="7" t="s">
-        <v>200</v>
+        <v>498</v>
       </c>
       <c r="D227" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E227" s="3"/>
-      <c r="F227" s="3" t="s">
-        <v>201</v>
-      </c>
+      <c r="F227" s="3"/>
     </row>
     <row r="228" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A228" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="B228" s="3"/>
+        <v>210</v>
+      </c>
+      <c r="B228" s="4">
+        <v>30007</v>
+      </c>
       <c r="C228" s="7" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="D228" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E228" s="3"/>
-      <c r="F228" s="3" t="s">
-        <v>700</v>
+      <c r="F228" s="8" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="7" t="s">
-        <v>486</v>
+        <v>500</v>
       </c>
       <c r="B229" s="3"/>
       <c r="C229" s="7" t="s">
-        <v>487</v>
+        <v>501</v>
       </c>
       <c r="D229" s="3" t="s">
-        <v>4</v>
+        <v>544</v>
       </c>
       <c r="E229" s="3"/>
       <c r="F229" s="3"/>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="7" t="s">
-        <v>488</v>
+        <v>502</v>
       </c>
       <c r="B230" s="3"/>
       <c r="C230" s="7" t="s">
-        <v>489</v>
+        <v>503</v>
       </c>
       <c r="D230" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E230" s="3"/>
+      <c r="F230" s="3"/>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="B231" s="4">
-        <v>24970</v>
-      </c>
+        <v>504</v>
+      </c>
+      <c r="B231" s="3"/>
       <c r="C231" s="7" t="s">
-        <v>205</v>
+        <v>505</v>
       </c>
       <c r="D231" s="3" t="s">
-        <v>335</v>
+        <v>544</v>
       </c>
       <c r="E231" s="3"/>
-      <c r="F231" s="3" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="F231" s="3"/>
+    </row>
+    <row r="232" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A232" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="B232" s="3">
-        <v>1964</v>
+        <v>506</v>
+      </c>
+      <c r="B232" s="3" t="s">
+        <v>695</v>
       </c>
       <c r="C232" s="7" t="s">
-        <v>207</v>
+        <v>507</v>
       </c>
       <c r="D232" s="3" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="E232" s="3"/>
       <c r="F232" s="3" t="s">
-        <v>702</v>
+        <v>508</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="7" t="s">
-        <v>703</v>
+        <v>212</v>
       </c>
       <c r="B233" s="3"/>
       <c r="C233" s="7" t="s">
-        <v>704</v>
+        <v>213</v>
       </c>
       <c r="D233" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E233" s="3"/>
-      <c r="F233" s="3" t="s">
-        <v>705</v>
-      </c>
+      <c r="F233" s="3"/>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="7" t="s">
-        <v>492</v>
+        <v>216</v>
       </c>
       <c r="B234" s="3"/>
       <c r="C234" s="7" t="s">
-        <v>493</v>
+        <v>217</v>
       </c>
       <c r="D234" s="3" t="s">
-        <v>545</v>
+        <v>4</v>
       </c>
       <c r="E234" s="3"/>
-      <c r="F234" s="3" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="F234" s="8" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="B235" s="4">
-        <v>25647</v>
-      </c>
+        <v>509</v>
+      </c>
+      <c r="B235" s="3"/>
       <c r="C235" s="7" t="s">
-        <v>209</v>
+        <v>510</v>
       </c>
       <c r="D235" s="3" t="s">
-        <v>706</v>
+        <v>33</v>
       </c>
       <c r="E235" s="3"/>
       <c r="F235" s="3" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="7" t="s">
-        <v>495</v>
+        <v>214</v>
       </c>
       <c r="B236" s="3"/>
       <c r="C236" s="7" t="s">
-        <v>496</v>
+        <v>215</v>
       </c>
       <c r="D236" s="3" t="s">
-        <v>33</v>
+        <v>697</v>
       </c>
       <c r="E236" s="3"/>
       <c r="F236" s="3" t="s">
-        <v>708</v>
+        <v>239</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" s="7" t="s">
-        <v>498</v>
+        <v>511</v>
       </c>
       <c r="B237" s="3"/>
       <c r="C237" s="7" t="s">
-        <v>499</v>
+        <v>512</v>
       </c>
       <c r="D237" s="3" t="s">
-        <v>4</v>
+        <v>544</v>
       </c>
       <c r="E237" s="3"/>
       <c r="F237" s="3"/>
     </row>
-    <row r="238" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="B238" s="4">
-        <v>30007</v>
-      </c>
+        <v>513</v>
+      </c>
+      <c r="B238" s="3"/>
       <c r="C238" s="7" t="s">
-        <v>211</v>
+        <v>514</v>
       </c>
       <c r="D238" s="3" t="s">
-        <v>4</v>
+        <v>544</v>
       </c>
       <c r="E238" s="3"/>
-      <c r="F238" s="9" t="s">
-        <v>500</v>
-      </c>
+      <c r="F238" s="3"/>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="7" t="s">
-        <v>501</v>
+        <v>218</v>
       </c>
       <c r="B239" s="3"/>
       <c r="C239" s="7" t="s">
-        <v>502</v>
+        <v>219</v>
       </c>
       <c r="D239" s="3" t="s">
-        <v>545</v>
+        <v>4</v>
       </c>
       <c r="E239" s="3"/>
       <c r="F239" s="3"/>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" s="7" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
       <c r="B240" s="3"/>
       <c r="C240" s="7" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
       <c r="D240" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E240" s="3"/>
       <c r="F240" s="3"/>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A241" s="7" t="s">
-        <v>505</v>
-      </c>
-      <c r="B241" s="3"/>
+        <v>220</v>
+      </c>
+      <c r="B241" s="3" t="s">
+        <v>698</v>
+      </c>
       <c r="C241" s="7" t="s">
-        <v>506</v>
+        <v>221</v>
       </c>
       <c r="D241" s="3" t="s">
-        <v>545</v>
-      </c>
-      <c r="E241" s="3"/>
-      <c r="F241" s="3"/>
-    </row>
-    <row r="242" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>699</v>
+      </c>
+      <c r="E241" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="F241" s="3" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A242" s="7" t="s">
-        <v>507</v>
-      </c>
-      <c r="B242" s="3" t="s">
-        <v>709</v>
+        <v>222</v>
+      </c>
+      <c r="B242" s="4">
+        <v>23193</v>
       </c>
       <c r="C242" s="7" t="s">
-        <v>508</v>
+        <v>223</v>
       </c>
       <c r="D242" s="3" t="s">
-        <v>33</v>
+        <v>542</v>
       </c>
       <c r="E242" s="3"/>
       <c r="F242" s="3" t="s">
-        <v>509</v>
+        <v>702</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="B243" s="3"/>
+        <v>703</v>
+      </c>
+      <c r="B243" s="3" t="s">
+        <v>704</v>
+      </c>
       <c r="C243" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="D243" s="3" t="s">
-        <v>7</v>
+        <v>705</v>
+      </c>
+      <c r="D243" s="3">
+        <v>96898</v>
       </c>
       <c r="E243" s="3"/>
-      <c r="F243" s="3"/>
+      <c r="F243" s="3" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" s="7" t="s">
-        <v>216</v>
+        <v>517</v>
       </c>
       <c r="B244" s="3"/>
       <c r="C244" s="7" t="s">
-        <v>217</v>
+        <v>518</v>
       </c>
       <c r="D244" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E244" s="3"/>
-      <c r="F244" s="9" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F244" s="3"/>
+    </row>
+    <row r="245" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A245" s="7" t="s">
-        <v>510</v>
-      </c>
-      <c r="B245" s="3"/>
+        <v>224</v>
+      </c>
+      <c r="B245" s="4">
+        <v>23193</v>
+      </c>
       <c r="C245" s="7" t="s">
-        <v>511</v>
+        <v>225</v>
       </c>
       <c r="D245" s="3" t="s">
-        <v>33</v>
+        <v>542</v>
       </c>
       <c r="E245" s="3"/>
       <c r="F245" s="3" t="s">
-        <v>497</v>
+        <v>707</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="B246" s="3"/>
+        <v>519</v>
+      </c>
+      <c r="B246" s="3">
+        <v>2005</v>
+      </c>
       <c r="C246" s="7" t="s">
-        <v>215</v>
+        <v>520</v>
       </c>
       <c r="D246" s="3" t="s">
-        <v>711</v>
+        <v>33</v>
       </c>
       <c r="E246" s="3"/>
-      <c r="F246" s="3" t="s">
-        <v>239</v>
+      <c r="F246" s="8" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" s="7" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="B247" s="3"/>
       <c r="C247" s="7" t="s">
-        <v>513</v>
+        <v>523</v>
       </c>
       <c r="D247" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E247" s="3"/>
       <c r="F247" s="3"/>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" s="7" t="s">
-        <v>514</v>
+        <v>226</v>
       </c>
       <c r="B248" s="3"/>
       <c r="C248" s="7" t="s">
-        <v>515</v>
-      </c>
-      <c r="D248" s="3" t="s">
-        <v>545</v>
+        <v>227</v>
+      </c>
+      <c r="D248" s="3">
+        <v>120</v>
       </c>
       <c r="E248" s="3"/>
-      <c r="F248" s="3"/>
+      <c r="F248" s="3" t="s">
+        <v>524</v>
+      </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" s="7" t="s">
-        <v>218</v>
+        <v>525</v>
       </c>
       <c r="B249" s="3"/>
       <c r="C249" s="7" t="s">
-        <v>219</v>
+        <v>526</v>
       </c>
       <c r="D249" s="3" t="s">
-        <v>4</v>
+        <v>708</v>
       </c>
       <c r="E249" s="3"/>
       <c r="F249" s="3"/>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" s="7" t="s">
-        <v>516</v>
+        <v>228</v>
       </c>
       <c r="B250" s="3"/>
       <c r="C250" s="7" t="s">
-        <v>517</v>
+        <v>229</v>
       </c>
       <c r="D250" s="3" t="s">
-        <v>545</v>
+        <v>4</v>
       </c>
       <c r="E250" s="3"/>
-      <c r="F250" s="3"/>
-    </row>
-    <row r="251" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="F250" s="8" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="B251" s="3" t="s">
-        <v>712</v>
-      </c>
+        <v>527</v>
+      </c>
+      <c r="B251" s="3"/>
       <c r="C251" s="7" t="s">
-        <v>221</v>
+        <v>528</v>
       </c>
       <c r="D251" s="3" t="s">
-        <v>713</v>
-      </c>
-      <c r="E251" s="3" t="s">
-        <v>714</v>
-      </c>
+        <v>710</v>
+      </c>
+      <c r="E251" s="3"/>
       <c r="F251" s="3" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" ht="32.25" x14ac:dyDescent="0.25">
       <c r="A252" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="B252" s="4">
-        <v>23193</v>
-      </c>
+        <v>529</v>
+      </c>
+      <c r="B252" s="3"/>
       <c r="C252" s="7" t="s">
-        <v>223</v>
+        <v>530</v>
       </c>
       <c r="D252" s="3" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="E252" s="3"/>
       <c r="F252" s="3" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" s="7" t="s">
-        <v>717</v>
-      </c>
-      <c r="B253" s="3" t="s">
-        <v>718</v>
-      </c>
+        <v>531</v>
+      </c>
+      <c r="B253" s="3"/>
       <c r="C253" s="7" t="s">
-        <v>719</v>
-      </c>
-      <c r="D253" s="3">
-        <v>96898</v>
+        <v>532</v>
+      </c>
+      <c r="D253" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E253" s="3"/>
-      <c r="F253" s="3" t="s">
-        <v>720</v>
-      </c>
+      <c r="F253" s="3"/>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" s="7" t="s">
-        <v>518</v>
+        <v>533</v>
       </c>
       <c r="B254" s="3"/>
       <c r="C254" s="7" t="s">
-        <v>519</v>
+        <v>534</v>
       </c>
       <c r="D254" s="3" t="s">
-        <v>4</v>
+        <v>544</v>
       </c>
       <c r="E254" s="3"/>
-      <c r="F254" s="3"/>
-    </row>
-    <row r="255" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A255" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="B255" s="4">
-        <v>23193</v>
-      </c>
-      <c r="C255" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="D255" s="3" t="s">
-        <v>543</v>
-      </c>
-      <c r="E255" s="3"/>
-      <c r="F255" s="3" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A256" s="7" t="s">
-        <v>520</v>
-      </c>
-      <c r="B256" s="3">
-        <v>2005</v>
-      </c>
-      <c r="C256" s="7" t="s">
-        <v>521</v>
-      </c>
-      <c r="D256" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E256" s="3"/>
-      <c r="F256" s="9" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A257" s="7" t="s">
-        <v>523</v>
-      </c>
-      <c r="B257" s="3"/>
-      <c r="C257" s="7" t="s">
-        <v>524</v>
-      </c>
-      <c r="D257" s="3" t="s">
-        <v>545</v>
-      </c>
-      <c r="E257" s="3"/>
-      <c r="F257" s="3"/>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A258" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="B258" s="3"/>
-      <c r="C258" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="D258" s="3">
-        <v>120</v>
-      </c>
-      <c r="E258" s="3"/>
-      <c r="F258" s="3" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A259" s="7" t="s">
-        <v>526</v>
-      </c>
-      <c r="B259" s="3"/>
-      <c r="C259" s="7" t="s">
-        <v>527</v>
-      </c>
-      <c r="D259" s="3" t="s">
-        <v>722</v>
-      </c>
-      <c r="E259" s="3"/>
-      <c r="F259" s="3"/>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A260" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="B260" s="3"/>
-      <c r="C260" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="D260" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E260" s="3"/>
-      <c r="F260" s="9" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A261" s="7" t="s">
-        <v>528</v>
-      </c>
-      <c r="B261" s="3"/>
-      <c r="C261" s="7" t="s">
-        <v>529</v>
-      </c>
-      <c r="D261" s="3" t="s">
-        <v>724</v>
-      </c>
-      <c r="E261" s="3"/>
-      <c r="F261" s="3" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6" ht="32.25" x14ac:dyDescent="0.25">
-      <c r="A262" s="7" t="s">
-        <v>530</v>
-      </c>
-      <c r="B262" s="3"/>
-      <c r="C262" s="7" t="s">
-        <v>531</v>
-      </c>
-      <c r="D262" s="3" t="s">
-        <v>545</v>
-      </c>
-      <c r="E262" s="3"/>
-      <c r="F262" s="3" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A263" s="7" t="s">
-        <v>532</v>
-      </c>
-      <c r="B263" s="3"/>
-      <c r="C263" s="7" t="s">
-        <v>533</v>
-      </c>
-      <c r="D263" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E263" s="3"/>
-      <c r="F263" s="3"/>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A264" s="7" t="s">
-        <v>534</v>
-      </c>
-      <c r="B264" s="3"/>
-      <c r="C264" s="7" t="s">
-        <v>535</v>
-      </c>
-      <c r="D264" s="3" t="s">
-        <v>545</v>
-      </c>
-      <c r="E264" s="3"/>
-      <c r="F264" s="3" t="s">
-        <v>727</v>
+      <c r="F254" s="3" t="s">
+        <v>713</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="A166:A168"/>
-    <mergeCell ref="B166:B168"/>
-    <mergeCell ref="C166:C168"/>
-    <mergeCell ref="D166:D168"/>
-    <mergeCell ref="E166:E168"/>
-    <mergeCell ref="A115:A117"/>
-    <mergeCell ref="B115:B117"/>
-    <mergeCell ref="C115:C117"/>
-    <mergeCell ref="A121:A123"/>
-    <mergeCell ref="B121:B123"/>
-    <mergeCell ref="C121:C123"/>
-    <mergeCell ref="D121:D123"/>
-    <mergeCell ref="E121:E123"/>
-    <mergeCell ref="A104:A106"/>
-    <mergeCell ref="B104:B106"/>
-    <mergeCell ref="C104:C106"/>
-    <mergeCell ref="D104:D106"/>
-    <mergeCell ref="E104:E106"/>
-    <mergeCell ref="A109:A111"/>
-    <mergeCell ref="B109:B111"/>
-    <mergeCell ref="C109:C111"/>
-    <mergeCell ref="E109:E111"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>